--- a/medicine/Enfance/Gaspard_et_Lisa/Gaspard_et_Lisa.xlsx
+++ b/medicine/Enfance/Gaspard_et_Lisa/Gaspard_et_Lisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gaspard et Lisa sont deux personnages fictifs, héros de la série de livres pour enfants "Les Catastrophes de Gaspard et Lisa" créés par Anne Gutman et Georg Hallensleben.
@@ -514,11 +526,13 @@
           <t>Albums jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anne Gutman et Georg Hallensleben ont publié le premier livre de la série en français en 1999. Les personnages sont devenus extrêmement populaires au Japon suite aux premières traductions japonaises des livres en 2001[1].
-Les livres ont également été traduits en quinze langues[1],[2].
-Liste des livres Gaspard et Lisa</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Gutman et Georg Hallensleben ont publié le premier livre de la série en français en 1999. Les personnages sont devenus extrêmement populaires au Japon suite aux premières traductions japonaises des livres en 2001.
+Les livres ont également été traduits en quinze langues,.
+</t>
         </is>
       </c>
     </row>
@@ -546,9 +560,11 @@
           <t>La Ville de Gaspard et Lisa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, la "Ville de Gaspard et Lisa" a été inaugurée à l'entrée du parc d'attractions Fuji-Q Highland, situé au pied du Mont Fuji au Japon. Il s'agit d'une reproduction miniature de Paris avec des cafés et boutiques à l'effigie de Gaspard et Lisa, ainsi qu'un petit musée consacré à l'univers de Gaspard et Lisa et à ses créateurs, Anne Gutman et Georg Hallensleben[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, la "Ville de Gaspard et Lisa" a été inaugurée à l'entrée du parc d'attractions Fuji-Q Highland, situé au pied du Mont Fuji au Japon. Il s'agit d'une reproduction miniature de Paris avec des cafés et boutiques à l'effigie de Gaspard et Lisa, ainsi qu'un petit musée consacré à l'univers de Gaspard et Lisa et à ses créateurs, Anne Gutman et Georg Hallensleben.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des peluches de Gaspard et Lisa ont été produites par Sun Arrow. Sony a acquis les droits de la franchise en 2012[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des peluches de Gaspard et Lisa ont été produites par Sun Arrow. Sony a acquis les droits de la franchise en 2012.
 </t>
         </is>
       </c>
@@ -608,11 +626,48 @@
           <t>Adaptation télévisée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La société de production Chorion a produit des dessins animés à partir des livres . La série télévisée a été diffusée en France à partir de 2010, notamment sur la chaîne TF1[5]. Elle comprend 51 épisodes au total, d'une dizaine de minutes chacun[6].
-Liste des épisodes[6]
-Ép. 1 - Une super fusée
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société de production Chorion a produit des dessins animés à partir des livres . La série télévisée a été diffusée en France à partir de 2010, notamment sur la chaîne TF1. Elle comprend 51 épisodes au total, d'une dizaine de minutes chacun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gaspard_et_Lisa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gaspard_et_Lisa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptation télévisée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des épisodes[6]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ép. 1 - Une super fusée
 Ép. 2 - Brioche, le nouvel ami !
 Ép. 3 - Le papier peint
 Ép. 4 - Le jardin potager
